--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/GBP_020_SwapFromBasisQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/GBP_020_SwapFromBasisQuotes.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="General Settings" sheetId="13" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
     <definedName name="FileOverwrite">'General Settings'!$D$9</definedName>
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Currency</t>
   </si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>GBP</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -85,7 +85,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.0;#,##0.0"/>
     <numFmt numFmtId="169" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -424,22 +424,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -734,7 +718,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="1" customWidth="1"/>
@@ -746,13 +730,13 @@
     <col min="8" max="16384" width="8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" thickBot="1">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75">
+    <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="18" t="s">
         <v>12</v>
@@ -761,14 +745,14 @@
       <c r="D2" s="19"/>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="8" t="s">
@@ -777,7 +761,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="8" t="s">
@@ -788,7 +772,7 @@
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
       <c r="C6" s="8" t="s">
@@ -799,7 +783,7 @@
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="8" t="s">
@@ -810,19 +794,18 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+      <c r="D8" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="8" t="s">
@@ -833,15 +816,15 @@
       </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="1:5" ht="12" thickBot="1"/>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
         <v>11</v>
       </c>
@@ -849,13 +832,13 @@
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="C14" s="8" t="s">
         <v>0</v>
@@ -865,7 +848,7 @@
       </c>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="C15" s="8" t="s">
         <v>6</v>
@@ -875,7 +858,7 @@
       </c>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="C16" s="8" t="s">
         <v>7</v>
@@ -885,7 +868,7 @@
       </c>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
       <c r="C17" s="8" t="s">
         <v>8</v>
@@ -895,7 +878,7 @@
       </c>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="2:5" ht="12" thickBot="1">
+    <row r="18" spans="2:5" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/GBP_020_SwapFromBasisQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/GBP_020_SwapFromBasisQuotes.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Currency</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>GBP</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -800,8 +797,9 @@
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>14</v>
+      <c r="D8" s="11" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="10"/>
     </row>
